--- a/output/FreqTheo0.5Citptile0.9alpha0.05power0.8N1000/FreqTheo0.5Citptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/FreqTheo0.5Citptile0.9alpha0.05power0.8N1000/FreqTheo0.5Citptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqTheo0.5Citptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9263E-9B90-45CC-8781-C1C9CDB0A9B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251087AD-E50B-4463-8CC2-7A9693CD1EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{932A160D-2317-475E-93F3-827A05F7AECE}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{2AAF6422-7DDD-4AD2-A5F9-72DE5C40EF43}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB959C67-CF2F-4B89-97BD-804AB7C61020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBDF01C-ACC3-4FD4-916B-124B03BB8FAD}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.03650001819873E-2</v>
+        <v>4.9297668436278981E-2</v>
       </c>
       <c r="D2">
-        <v>0.80958790819968429</v>
+        <v>0.80252096195758083</v>
       </c>
       <c r="E2">
-        <v>8.2029999999999994</v>
+        <v>8.18</v>
       </c>
       <c r="F2">
-        <v>113.815</v>
+        <v>113.31699999999999</v>
       </c>
       <c r="G2">
-        <v>7.7910000000000004</v>
+        <v>7.3860000000000001</v>
       </c>
       <c r="H2">
-        <v>1.0620000000000001</v>
+        <v>1.111</v>
       </c>
       <c r="I2">
-        <v>1.012</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="J2">
-        <v>5.4044831098583664E-2</v>
+        <v>5.0821745594472924E-2</v>
       </c>
       <c r="K2">
-        <v>0.81558157530255271</v>
+        <v>0.81007282203355579</v>
       </c>
       <c r="L2">
-        <v>13.815</v>
+        <v>13.317</v>
       </c>
       <c r="M2">
-        <v>113.815</v>
+        <v>113.31699999999999</v>
       </c>
       <c r="N2">
-        <v>1.1679999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="O2">
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0609999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.037981027016547E-2</v>
+        <v>5.1161307379203103E-2</v>
       </c>
       <c r="D3">
-        <v>0.80467387079418251</v>
+        <v>0.8060116045225274</v>
       </c>
       <c r="E3">
-        <v>8.1760000000000002</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F3">
-        <v>113.45699999999999</v>
+        <v>113.123</v>
       </c>
       <c r="G3">
-        <v>7.4039999999999999</v>
+        <v>7.0810000000000004</v>
       </c>
       <c r="H3">
-        <v>0.77200000000000002</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="I3">
-        <v>0.73399999999999999</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="J3">
-        <v>4.6440358321546436E-2</v>
+        <v>4.5677361853832449E-2</v>
       </c>
       <c r="K3">
-        <v>0.81164151164151221</v>
+        <v>0.80377401837928164</v>
       </c>
       <c r="L3">
-        <v>13.457000000000001</v>
+        <v>13.122999999999999</v>
       </c>
       <c r="M3">
-        <v>101.351</v>
+        <v>101.38</v>
       </c>
       <c r="N3">
-        <v>0.79400000000000004</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="O3">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.8810369147123008E-2</v>
+        <v>5.1300664232664099E-2</v>
       </c>
       <c r="D4">
-        <v>0.79873757078870999</v>
+        <v>0.79870810342552834</v>
       </c>
       <c r="E4">
-        <v>8.19</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="F4">
-        <v>113.134</v>
+        <v>114.02200000000001</v>
       </c>
       <c r="G4">
-        <v>7.32</v>
+        <v>7.8550000000000004</v>
       </c>
       <c r="H4">
-        <v>1.085</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="I4">
-        <v>1.0029999999999999</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="J4">
-        <v>4.9423758865248225E-2</v>
+        <v>6.4463729417000445E-2</v>
       </c>
       <c r="K4">
-        <v>0.80988995828663302</v>
+        <v>0.81603449069280487</v>
       </c>
       <c r="L4">
-        <v>13.134</v>
+        <v>14.022</v>
       </c>
       <c r="M4">
-        <v>101.83499999999999</v>
+        <v>102.056</v>
       </c>
       <c r="N4">
-        <v>1.0569999999999999</v>
+        <v>1.194</v>
       </c>
       <c r="O4">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1319999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.9922151191869969E-2</v>
+        <v>5.112331654195483E-2</v>
       </c>
       <c r="D5">
-        <v>0.81157592749195162</v>
+        <v>0.81292400783942065</v>
       </c>
       <c r="E5">
-        <v>8.2040000000000006</v>
+        <v>8.157</v>
       </c>
       <c r="F5">
-        <v>113.67400000000001</v>
+        <v>113.937</v>
       </c>
       <c r="G5">
-        <v>7.6779999999999999</v>
+        <v>7.9429999999999996</v>
       </c>
       <c r="H5">
-        <v>1.7070000000000001</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="I5">
-        <v>1.7929999999999999</v>
+        <v>1.6990000000000001</v>
       </c>
       <c r="J5">
-        <v>5.8448347971560032E-2</v>
+        <v>4.8785166240409211E-2</v>
       </c>
       <c r="K5">
-        <v>0.81329704971102978</v>
+        <v>0.82823923214749773</v>
       </c>
       <c r="L5">
-        <v>13.673999999999999</v>
+        <v>13.936999999999999</v>
       </c>
       <c r="M5">
-        <v>103.223</v>
+        <v>103.3</v>
       </c>
       <c r="N5">
-        <v>1.8660000000000001</v>
+        <v>1.889</v>
       </c>
       <c r="O5">
-        <v>1.7929999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.0298062968518246E-2</v>
+        <v>7.5146036639479469E-2</v>
       </c>
       <c r="D6">
-        <v>0.86901338933410677</v>
+        <v>0.88357865169253602</v>
       </c>
       <c r="E6">
-        <v>8.1760000000000002</v>
+        <v>8.1620000000000008</v>
       </c>
       <c r="F6">
-        <v>115.959</v>
+        <v>116.621</v>
       </c>
       <c r="G6">
-        <v>8.8239999999999998</v>
+        <v>9.3249999999999993</v>
       </c>
       <c r="H6">
-        <v>1.3540000000000001</v>
+        <v>1.214</v>
       </c>
       <c r="I6">
-        <v>1.194</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="J6">
-        <v>7.0031672999479905E-2</v>
+        <v>7.9748831353645994E-2</v>
       </c>
       <c r="K6">
-        <v>0.86275653687573184</v>
+        <v>0.8852143440639022</v>
       </c>
       <c r="L6">
-        <v>15.959</v>
+        <v>16.620999999999999</v>
       </c>
       <c r="M6">
-        <v>115.959</v>
+        <v>116.621</v>
       </c>
       <c r="N6">
-        <v>1.355</v>
+        <v>1.29</v>
       </c>
       <c r="O6">
-        <v>1.1559999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1890000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.033346412880119E-2</v>
+        <v>7.8091280842247021E-2</v>
       </c>
       <c r="D7">
-        <v>0.87042668500778464</v>
+        <v>0.88743764577035955</v>
       </c>
       <c r="E7">
-        <v>8.1660000000000004</v>
+        <v>8.173</v>
       </c>
       <c r="F7">
-        <v>116.434</v>
+        <v>117.28700000000001</v>
       </c>
       <c r="G7">
-        <v>9.3140000000000001</v>
+        <v>9.7759999999999998</v>
       </c>
       <c r="H7">
-        <v>1.006</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="I7">
-        <v>0.90400000000000003</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="J7">
-        <v>5.7478916999556151E-2</v>
+        <v>7.3157669237360751E-2</v>
       </c>
       <c r="K7">
-        <v>0.85262561164816808</v>
+        <v>0.88118908382066319</v>
       </c>
       <c r="L7">
-        <v>16.434000000000001</v>
+        <v>17.286999999999999</v>
       </c>
       <c r="M7">
-        <v>101.639</v>
+        <v>101.723</v>
       </c>
       <c r="N7">
-        <v>0.93600000000000005</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O7">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.0654747803714765E-2</v>
+        <v>7.6908362739903091E-2</v>
       </c>
       <c r="D8">
-        <v>0.86578345179048322</v>
+        <v>0.87979568774788741</v>
       </c>
       <c r="E8">
-        <v>8.1709999999999994</v>
+        <v>8.1590000000000007</v>
       </c>
       <c r="F8">
-        <v>115.873</v>
+        <v>116.505</v>
       </c>
       <c r="G8">
-        <v>8.7460000000000004</v>
+        <v>9.1219999999999999</v>
       </c>
       <c r="H8">
-        <v>1.155</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="I8">
-        <v>1.206</v>
+        <v>1.228</v>
       </c>
       <c r="J8">
-        <v>6.1567635903919102E-2</v>
+        <v>7.2495894909688011E-2</v>
       </c>
       <c r="K8">
-        <v>0.85338683901768042</v>
+        <v>0.90001916225934697</v>
       </c>
       <c r="L8">
-        <v>15.872999999999999</v>
+        <v>16.504999999999999</v>
       </c>
       <c r="M8">
-        <v>102.247</v>
+        <v>102.301</v>
       </c>
       <c r="N8">
-        <v>1.2629999999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="O8">
-        <v>1.198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.0318757456565725E-2</v>
+        <v>7.7307518262239264E-2</v>
       </c>
       <c r="D9">
-        <v>0.864234907538598</v>
+        <v>0.88850777509857237</v>
       </c>
       <c r="E9">
-        <v>8.1820000000000004</v>
+        <v>8.1910000000000007</v>
       </c>
       <c r="F9">
-        <v>115.63500000000001</v>
+        <v>116.94499999999999</v>
       </c>
       <c r="G9">
-        <v>8.4969999999999999</v>
+        <v>9.4369999999999994</v>
       </c>
       <c r="H9">
-        <v>1.9690000000000001</v>
+        <v>2.234</v>
       </c>
       <c r="I9">
-        <v>1.899</v>
+        <v>2.1259999999999999</v>
       </c>
       <c r="J9">
-        <v>6.5365190365190382E-2</v>
+        <v>6.4121417797888394E-2</v>
       </c>
       <c r="K9">
-        <v>0.85615400188184987</v>
+        <v>0.880419355803577</v>
       </c>
       <c r="L9">
-        <v>15.635</v>
+        <v>16.945</v>
       </c>
       <c r="M9">
-        <v>103.605</v>
+        <v>103.99299999999999</v>
       </c>
       <c r="N9">
-        <v>1.9670000000000001</v>
+        <v>2.218</v>
       </c>
       <c r="O9">
-        <v>1.8680000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0960000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.10062738692055988</v>
+        <v>0.10395710191859975</v>
       </c>
       <c r="D10">
-        <v>0.95163817208329493</v>
+        <v>0.96993644773825327</v>
       </c>
       <c r="E10">
-        <v>8.1940000000000008</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F10">
-        <v>119.643</v>
+        <v>120.18899999999999</v>
       </c>
       <c r="G10">
-        <v>11.157</v>
+        <v>11.583</v>
       </c>
       <c r="H10">
-        <v>1.649</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="I10">
-        <v>1.5309999999999999</v>
+        <v>1.726</v>
       </c>
       <c r="J10">
-        <v>9.9520118001370325E-2</v>
+        <v>0.10868204388490793</v>
       </c>
       <c r="K10">
-        <v>0.95601331874884865</v>
+        <v>0.96932686641252641</v>
       </c>
       <c r="L10">
-        <v>19.643000000000001</v>
+        <v>20.189</v>
       </c>
       <c r="M10">
-        <v>119.643</v>
+        <v>120.18899999999999</v>
       </c>
       <c r="N10">
-        <v>1.6870000000000001</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="O10">
-        <v>1.5960000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>9.9899760010628863E-2</v>
+        <v>0.10445159310213989</v>
       </c>
       <c r="D11">
-        <v>0.95663844263756903</v>
+        <v>0.96572963443365356</v>
       </c>
       <c r="E11">
-        <v>8.1690000000000005</v>
+        <v>8.1869999999999994</v>
       </c>
       <c r="F11">
-        <v>119.05200000000001</v>
+        <v>119.858</v>
       </c>
       <c r="G11">
-        <v>10.548</v>
+        <v>11.19</v>
       </c>
       <c r="H11">
-        <v>1.0569999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="I11">
-        <v>0.97299999999999998</v>
+        <v>1.042</v>
       </c>
       <c r="J11">
-        <v>0.10183615819209041</v>
+        <v>9.6723300970873796E-2</v>
       </c>
       <c r="K11">
-        <v>0.95305139305139341</v>
+        <v>0.97341772151898753</v>
       </c>
       <c r="L11">
-        <v>19.052</v>
+        <v>19.858000000000001</v>
       </c>
       <c r="M11">
-        <v>101.89400000000001</v>
+        <v>102.023</v>
       </c>
       <c r="N11">
-        <v>1.0780000000000001</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="O11">
-        <v>0.96699999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.10149379801858452</v>
+        <v>0.10321664140757779</v>
       </c>
       <c r="D12">
-        <v>0.95136702016267505</v>
+        <v>0.96454649892621835</v>
       </c>
       <c r="E12">
-        <v>8.1910000000000007</v>
+        <v>8.18</v>
       </c>
       <c r="F12">
-        <v>119.52800000000001</v>
+        <v>119.646</v>
       </c>
       <c r="G12">
-        <v>10.884</v>
+        <v>11.023</v>
       </c>
       <c r="H12">
-        <v>1.5309999999999999</v>
+        <v>1.554</v>
       </c>
       <c r="I12">
-        <v>1.4430000000000001</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="J12">
-        <v>9.3576184880532709E-2</v>
+        <v>0.10386729485669416</v>
       </c>
       <c r="K12">
-        <v>0.95513471046257947</v>
+        <v>0.96922648411020518</v>
       </c>
       <c r="L12">
-        <v>19.527999999999999</v>
+        <v>19.646000000000001</v>
       </c>
       <c r="M12">
-        <v>102.846</v>
+        <v>102.76900000000001</v>
       </c>
       <c r="N12">
-        <v>1.643</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="O12">
-        <v>1.5009999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.10095579470821056</v>
+        <v>0.10422996882438013</v>
       </c>
       <c r="D13">
-        <v>0.95051824880162683</v>
+        <v>0.97208060930662943</v>
       </c>
       <c r="E13">
-        <v>8.1809999999999992</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F13">
-        <v>119.14</v>
+        <v>120.151</v>
       </c>
       <c r="G13">
-        <v>10.558</v>
+        <v>11.58</v>
       </c>
       <c r="H13">
-        <v>2.4889999999999999</v>
+        <v>2.8050000000000002</v>
       </c>
       <c r="I13">
-        <v>2.137</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J13">
-        <v>9.4221364221364276E-2</v>
+        <v>0.10172523554876492</v>
       </c>
       <c r="K13">
-        <v>0.95238146627035491</v>
+        <v>0.9801889076016389</v>
       </c>
       <c r="L13">
-        <v>19.14</v>
+        <v>20.151</v>
       </c>
       <c r="M13">
-        <v>104.547</v>
+        <v>104.79600000000001</v>
       </c>
       <c r="N13">
-        <v>2.5299999999999998</v>
+        <v>2.7839999999999998</v>
       </c>
       <c r="O13">
-        <v>2.3290000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5430000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11472619720120435</v>
+        <v>0.11909170746172065</v>
       </c>
       <c r="D14">
-        <v>0.97898915207401593</v>
+        <v>0.99136152070021688</v>
       </c>
       <c r="E14">
-        <v>8.1690000000000005</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="F14">
-        <v>120.386</v>
+        <v>121.568</v>
       </c>
       <c r="G14">
-        <v>11.034000000000001</v>
+        <v>12.121</v>
       </c>
       <c r="H14">
-        <v>1.752</v>
+        <v>1.607</v>
       </c>
       <c r="I14">
-        <v>1.41</v>
+        <v>1.627</v>
       </c>
       <c r="J14">
-        <v>0.11407639187867559</v>
+        <v>0.1209812902236366</v>
       </c>
       <c r="K14">
-        <v>0.97792270644387147</v>
+        <v>0.99018520765726836</v>
       </c>
       <c r="L14">
-        <v>20.385999999999999</v>
+        <v>21.568000000000001</v>
       </c>
       <c r="M14">
-        <v>120.386</v>
+        <v>121.568</v>
       </c>
       <c r="N14">
-        <v>1.4330000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="O14">
-        <v>1.2689999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.11546602354463606</v>
+        <v>0.11875742669011895</v>
       </c>
       <c r="D15">
-        <v>0.97835274924348314</v>
+        <v>0.99078559102957098</v>
       </c>
       <c r="E15">
-        <v>8.1639999999999997</v>
+        <v>8.1679999999999993</v>
       </c>
       <c r="F15">
-        <v>121.18899999999999</v>
+        <v>121.64400000000001</v>
       </c>
       <c r="G15">
-        <v>11.906000000000001</v>
+        <v>12.254</v>
       </c>
       <c r="H15">
-        <v>1.208</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="I15">
-        <v>1.004</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="J15">
-        <v>0.11004040404040402</v>
+        <v>0.10193003618817852</v>
       </c>
       <c r="K15">
-        <v>0.98318708318708314</v>
+        <v>0.98788782816229137</v>
       </c>
       <c r="L15">
-        <v>21.189</v>
+        <v>21.643999999999998</v>
       </c>
       <c r="M15">
-        <v>102.211</v>
+        <v>102.099</v>
       </c>
       <c r="N15">
-        <v>1.2529999999999999</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="O15">
-        <v>1.119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11399951149708323</v>
+        <v>0.11512828643877944</v>
       </c>
       <c r="D16">
-        <v>0.98083794089768983</v>
+        <v>0.99106153743268666</v>
       </c>
       <c r="E16">
-        <v>8.1760000000000002</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F16">
-        <v>121.044</v>
+        <v>121.01900000000001</v>
       </c>
       <c r="G16">
-        <v>11.84</v>
+        <v>11.853</v>
       </c>
       <c r="H16">
-        <v>1.681</v>
+        <v>1.792</v>
       </c>
       <c r="I16">
-        <v>1.5109999999999999</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="J16">
-        <v>0.10029587450454969</v>
+        <v>0.11028571428571429</v>
       </c>
       <c r="K16">
-        <v>0.97836139920449061</v>
+        <v>0.98536046959576384</v>
       </c>
       <c r="L16">
-        <v>21.044</v>
+        <v>21.018999999999998</v>
       </c>
       <c r="M16">
-        <v>102.997</v>
+        <v>103.04900000000001</v>
       </c>
       <c r="N16">
-        <v>1.6759999999999999</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="O16">
-        <v>1.516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.5760000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.11558691903851086</v>
+        <v>0.11585212093920018</v>
       </c>
       <c r="D17">
-        <v>0.97802469993151275</v>
+        <v>0.99058928637727117</v>
       </c>
       <c r="E17">
-        <v>8.1859999999999999</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="F17">
-        <v>121.256</v>
+        <v>122.45399999999999</v>
       </c>
       <c r="G17">
-        <v>11.981999999999999</v>
+        <v>13.343999999999999</v>
       </c>
       <c r="H17">
-        <v>2.89</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="I17">
-        <v>2.4289999999999998</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="J17">
-        <v>0.11815135567817969</v>
+        <v>0.12995486425718977</v>
       </c>
       <c r="K17">
-        <v>0.98409679027608887</v>
+        <v>0.99230120044971515</v>
       </c>
       <c r="L17">
-        <v>21.256</v>
+        <v>22.454000000000001</v>
       </c>
       <c r="M17">
-        <v>105.06399999999999</v>
+        <v>105.304</v>
       </c>
       <c r="N17">
-        <v>2.8959999999999999</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="O17">
-        <v>2.5939999999999999</v>
+        <v>2.8109999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058FD826-6AEF-4FB9-A187-05BE31755812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9F8451-39D3-4C56-A515-65C48796AC1B}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
